--- a/MLS_SPREAD.xlsx
+++ b/MLS_SPREAD.xlsx
@@ -13491,7 +13491,7 @@
         <v>3.0</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
       <c r="AI52" t="n">
         <v>50.0</v>
@@ -13509,13 +13509,13 @@
         <v>24.0</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.0</v>
+        <v>464.0</v>
       </c>
       <c r="AO52" t="n">
         <v>1200.0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.0</v>
@@ -13527,10 +13527,10 @@
         <v>0.0</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AV52" t="n">
         <v>0.0</v>
@@ -13539,55 +13539,55 @@
         <v>0.0</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AY52" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BA52" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BB52" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BC52" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="BD52" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="BE52" t="n">
-        <v>0.0</v>
+        <v>208.0</v>
       </c>
       <c r="BF52" t="n">
         <v>0.0</v>
       </c>
       <c r="BG52" t="n">
-        <v>0.0</v>
+        <v>147.0</v>
       </c>
       <c r="BH52" t="n">
         <v>0.0</v>
       </c>
       <c r="BI52" t="n">
-        <v>0.0</v>
+        <v>208.0</v>
       </c>
       <c r="BJ52" t="n">
-        <v>0.0</v>
+        <v>147.0</v>
       </c>
       <c r="BK52" t="n">
-        <v>0.0</v>
+        <v>355.0</v>
       </c>
       <c r="BL52" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BM52" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BN52" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BO52" t="n">
         <v>0.0</v>
